--- a/Models and Prediction/Appendix/stress metrics available.xlsx
+++ b/Models and Prediction/Appendix/stress metrics available.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kocha\Documents\Queen's\Year 4\ELEC498\Model\MISC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kocha\Documents\Queen's\Year 4\ELEC498\ECG_Li\Models and Prediction\Appendix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE01127B-CEA1-467C-A23C-6D28EF3C4CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8431364D-1C40-4C5D-8AAA-10AC0EB681A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0D0616B0-A1B0-4696-809D-4116F9010AA3}"/>
   </bookViews>
@@ -588,7 +588,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4896279-F720-4814-AF46-26E4DAC64139}">
   <dimension ref="A1:A67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,12 +728,12 @@
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -743,17 +743,17 @@
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
     </row>
